--- a/Top5_correlated_features.xlsx
+++ b/Top5_correlated_features.xlsx
@@ -14,24 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>LoanStatus</t>
   </si>
   <si>
-    <t>num__CreditHistory</t>
-  </si>
-  <si>
-    <t>cat__PropertyArea_Semiurban</t>
-  </si>
-  <si>
-    <t>cat__Married_Yes</t>
-  </si>
-  <si>
-    <t>cat__Education_Graduate</t>
-  </si>
-  <si>
-    <t>cat__Gender_Male</t>
+    <t>CreditHistory</t>
+  </si>
+  <si>
+    <t>PropertyArea_Semiurban</t>
+  </si>
+  <si>
+    <t>Education_Graduate</t>
+  </si>
+  <si>
+    <t>Married_Yes</t>
+  </si>
+  <si>
+    <t>Married_nan</t>
+  </si>
+  <si>
+    <t>Gender_Male</t>
+  </si>
+  <si>
+    <t>SelfEmployed_nan</t>
+  </si>
+  <si>
+    <t>Dependents</t>
+  </si>
+  <si>
+    <t>SelfEmployed_Yes</t>
+  </si>
+  <si>
+    <t>ApplicantIncome</t>
+  </si>
+  <si>
+    <t>SelfEmployed_No</t>
+  </si>
+  <si>
+    <t>Gender_Female</t>
+  </si>
+  <si>
+    <t>LoanAmountTerm</t>
+  </si>
+  <si>
+    <t>Gender_nan</t>
+  </si>
+  <si>
+    <t>LoanAmount</t>
+  </si>
+  <si>
+    <t>PropertyArea_Urban</t>
+  </si>
+  <si>
+    <t>CoapplicantIncome</t>
+  </si>
+  <si>
+    <t>Education_Not Graduate</t>
+  </si>
+  <si>
+    <t>Married_No</t>
   </si>
 </sst>
 </file>
@@ -389,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5404832126453123</v>
+        <v>0.5616781574653799</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -429,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0914778247360605</v>
+        <v>0.08588391467536527</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -437,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08588391467536527</v>
+        <v>0.08428050176785735</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -445,7 +487,119 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0179866787070322</v>
+        <v>0.04726442851519972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.02540687427853642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.0159090832252756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.006781284954637537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-0.003700437714982108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-0.004709522659351506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-0.005856508856783117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-0.01798667870703219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-0.02126765812386307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-0.02281372175452668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>-0.03731776869979424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-0.04362088263441965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-0.05918731348785009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-0.08588391467536534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-0.09147782473606056</v>
       </c>
     </row>
   </sheetData>

--- a/Top5_correlated_features.xlsx
+++ b/Top5_correlated_features.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
-  <si>
-    <t>LoanStatus</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>LoanStatus_Y</t>
   </si>
   <si>
     <t>CreditHistory</t>
@@ -25,45 +25,33 @@
     <t>PropertyArea_Semiurban</t>
   </si>
   <si>
-    <t>Education_Graduate</t>
-  </si>
-  <si>
     <t>Married_Yes</t>
   </si>
   <si>
-    <t>Married_nan</t>
+    <t>Dependents_2</t>
   </si>
   <si>
     <t>Gender_Male</t>
   </si>
   <si>
-    <t>SelfEmployed_nan</t>
-  </si>
-  <si>
-    <t>Dependents</t>
-  </si>
-  <si>
     <t>SelfEmployed_Yes</t>
   </si>
   <si>
     <t>ApplicantIncome</t>
   </si>
   <si>
-    <t>SelfEmployed_No</t>
-  </si>
-  <si>
-    <t>Gender_Female</t>
-  </si>
-  <si>
     <t>LoanAmountTerm</t>
   </si>
   <si>
-    <t>Gender_nan</t>
+    <t>Dependents_3+</t>
   </si>
   <si>
     <t>LoanAmount</t>
   </si>
   <si>
+    <t>Dependents_1</t>
+  </si>
+  <si>
     <t>PropertyArea_Urban</t>
   </si>
   <si>
@@ -71,9 +59,6 @@
   </si>
   <si>
     <t>Education_Not Graduate</t>
-  </si>
-  <si>
-    <t>Married_No</t>
   </si>
 </sst>
 </file>
@@ -431,14 +416,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
@@ -455,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5616781574653799</v>
+        <v>0.56167815746538</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -463,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1365404315682435</v>
+        <v>0.1365404315682436</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -471,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.08588391467536527</v>
+        <v>0.08428050176785747</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -479,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08428050176785735</v>
+        <v>0.06238355212613243</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -487,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04726442851519972</v>
+        <v>0.02540687427853648</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -495,7 +480,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.02540687427853642</v>
+        <v>-0.00370043771498204</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -503,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0159090832252756</v>
+        <v>-0.004709522659351538</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -511,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.006781284954637537</v>
+        <v>-0.02126765812386304</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -519,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.003700437714982108</v>
+        <v>-0.02612308236942839</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -527,7 +512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.004709522659351506</v>
+        <v>-0.03731776869979421</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -535,7 +520,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.005856508856783117</v>
+        <v>-0.03873991242116122</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -543,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.01798667870703219</v>
+        <v>-0.04362088263441961</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -551,7 +536,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.02126765812386307</v>
+        <v>-0.05918731348785018</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -559,47 +544,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.02281372175452668</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>-0.03731776869979424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>-0.04362088263441965</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>-0.05918731348785009</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
         <v>-0.08588391467536534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>-0.09147782473606056</v>
       </c>
     </row>
   </sheetData>
